--- a/data/Registro Público de Emissões.xlsx
+++ b/data/Registro Público de Emissões.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb50eefc1efb6381/Ambiente de Trabalho/Projeção da GEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{DFB8D4D8-143D-423E-9B43-58A9F252EBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4333B674-247D-4F3B-B9F4-3747D1C15D46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA21748-A816-4A7B-811B-7D88F51ECBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2A31131-A1DF-4B08-91CA-EBFD710E4245}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$S$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,10 +50,10 @@
     <t>Escopo</t>
   </si>
   <si>
-    <t>Cement</t>
+    <t>Pulp and Paper</t>
   </si>
   <si>
-    <t>Intercement</t>
+    <t>Suzano</t>
   </si>
   <si>
     <t>Escopo 1</t>
@@ -65,44 +65,44 @@
     <t>Escopo 3</t>
   </si>
   <si>
-    <t>Votorantim</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Steel</t>
   </si>
   <si>
-    <t>ArcelorMittal</t>
+    <t>CSN</t>
   </si>
   <si>
-    <t>Pulp and Paper</t>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Intercement</t>
+  </si>
+  <si>
+    <t>Ternium Brasil</t>
+  </si>
+  <si>
+    <t>Votorantim</t>
+  </si>
+  <si>
+    <t>ArcelorMittal</t>
   </si>
   <si>
     <t>Aluminum</t>
   </si>
   <si>
-    <t>Companhia Brasileira de Alumínio (CBA)</t>
+    <t>CBA</t>
   </si>
   <si>
-    <t>Ternium Brasil</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>ISA Energia Brasil</t>
-  </si>
-  <si>
-    <t>Companhia Siderúrgica Nacional (CSN)</t>
-  </si>
-  <si>
-    <t>Suzano</t>
+    <t>ISA Energia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +162,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,10 +181,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,24 +503,24 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.95"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="17.1796875" style="2"/>
+    <col min="10" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="17.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,12 +579,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -633,12 +638,12 @@
         <v>2394529.67</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -692,12 +697,12 @@
         <v>49237.120000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -751,15 +756,15 @@
         <v>1642027.72</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
         <v>1071559.17</v>
@@ -810,12 +815,12 @@
         <v>4085794.51</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -859,12 +864,12 @@
         <v>14672630.84</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -908,12 +913,12 @@
         <v>155464.34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -957,15 +962,15 @@
         <v>54155014.740000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1006,12 +1011,12 @@
         <v>68983109.920000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -1055,12 +1060,12 @@
         <v>1565986.9100000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1104,12 +1109,12 @@
         <v>10479.130000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1153,15 +1158,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1202,12 +1207,12 @@
         <v>1576466.04</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -1251,12 +1256,12 @@
         <v>10167539.91</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -1300,12 +1305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -1349,15 +1354,15 @@
         <v>2591712.94</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1398,12 +1403,12 @@
         <v>12759252.85</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -1443,12 +1448,12 @@
         <v>13379664.300000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -1488,12 +1493,12 @@
         <v>51530.26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1533,15 +1538,15 @@
         <v>1517808.89</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1578,12 +1583,12 @@
         <v>14949003.450000001</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1619,12 +1624,12 @@
         <v>23041455.530000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
@@ -1660,12 +1665,12 @@
         <v>89948.57</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -1701,15 +1706,15 @@
         <v>7028124.2699999996</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1742,12 +1747,12 @@
         <v>30159528.370000001</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -1783,12 +1788,12 @@
         <v>1358301.28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="15">
       <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -1824,12 +1829,12 @@
         <v>249225.92</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="15">
       <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -1865,15 +1870,15 @@
         <v>1338490.27</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="15">
       <c r="A29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1906,12 +1911,12 @@
         <v>2946017.4699999997</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
@@ -1947,12 +1952,12 @@
         <v>11285.91</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -1988,12 +1993,12 @@
         <v>127785.84</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -2029,15 +2034,15 @@
         <v>2519.09</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>

--- a/data/Registro Público de Emissões.xlsx
+++ b/data/Registro Público de Emissões.xlsx
@@ -1,38 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb50eefc1efb6381/Ambiente de Trabalho/Projeção da GEE/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA21748-A816-4A7B-811B-7D88F51ECBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2A31131-A1DF-4B08-91CA-EBFD710E4245}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$S$33</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$S$33</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -41,94 +25,114 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="19">
   <si>
-    <t>Setor da Indústria</t>
+    <t xml:space="preserve">Setor da Indústria</t>
   </si>
   <si>
-    <t>Empresa</t>
+    <t xml:space="preserve">Empresa</t>
   </si>
   <si>
-    <t>Escopo</t>
+    <t xml:space="preserve">Escopo</t>
   </si>
   <si>
-    <t>Pulp and Paper</t>
+    <t xml:space="preserve">Pulp and Paper</t>
   </si>
   <si>
-    <t>Suzano</t>
+    <t xml:space="preserve">Suzano</t>
   </si>
   <si>
-    <t>Escopo 1</t>
+    <t xml:space="preserve">Escopo 1</t>
   </si>
   <si>
-    <t>Escopo 2</t>
+    <t xml:space="preserve">Escopo 2</t>
   </si>
   <si>
-    <t>Escopo 3</t>
+    <t xml:space="preserve">Escopo 3</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t>Steel</t>
+    <t xml:space="preserve">Steel</t>
   </si>
   <si>
-    <t>CSN</t>
+    <t xml:space="preserve">CSN</t>
   </si>
   <si>
-    <t>Cement</t>
+    <t xml:space="preserve">Cement</t>
   </si>
   <si>
-    <t>Intercement</t>
+    <t xml:space="preserve">Intercement</t>
   </si>
   <si>
-    <t>Ternium Brasil</t>
+    <t xml:space="preserve">Ternium</t>
   </si>
   <si>
-    <t>Votorantim</t>
+    <t xml:space="preserve">Votorantim</t>
   </si>
   <si>
-    <t>ArcelorMittal</t>
+    <t xml:space="preserve">ArcelorMittal</t>
   </si>
   <si>
-    <t>Aluminum</t>
+    <t xml:space="preserve">Aluminum</t>
   </si>
   <si>
-    <t>CBA</t>
+    <t xml:space="preserve">CBA</t>
   </si>
   <si>
-    <t>ISA Energia</t>
+    <t xml:space="preserve">ISA Energia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -141,7 +145,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -149,230 +153,245 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF242424"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF242424"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -380,33 +399,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -419,13 +429,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -435,15 +439,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -451,7 +453,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -459,370 +460,347 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A106EF90-8572-4AA3-9DE6-5E37674145CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="17.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="17.140625" style="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="12" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="20" style="1" width="17.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2" t="n">
         <v>2008</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2" t="n">
         <v>2010</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2" t="n">
         <v>2011</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="2" t="n">
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="n">
         <v>767431.17</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3" t="n">
         <v>722184.8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="n">
         <v>772713.3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>1008163.7</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="n">
         <v>908768.8</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="3" t="n">
         <v>826102.95</v>
       </c>
-      <c r="J2" s="3">
-        <v>1113501.1399999999</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="J2" s="3" t="n">
+        <v>1113501.14</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>1596608.27</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="3" t="n">
         <v>920025.42</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="3" t="n">
         <v>864537.21</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="3" t="n">
         <v>967203.37</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="3" t="n">
         <v>2134653.46</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="3" t="n">
         <v>2148999.79</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="3" t="n">
         <v>2306446.9</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="3" t="n">
         <v>2350907.04</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="3" t="n">
         <v>2394529.67</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>24354</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>12724.76</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>25976.1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>26841.03</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3" t="n">
         <v>55112.41</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="3" t="n">
         <v>80076.11</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="3" t="n">
         <v>112382.28</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="3" t="n">
         <v>63494.61</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="3" t="n">
         <v>65681.25</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="3" t="n">
         <v>73142.42</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="3" t="n">
         <v>60031.16</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="3" t="n">
         <v>71061.34</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="3" t="n">
         <v>59531.9</v>
       </c>
-      <c r="Q3" s="3">
-        <v>137822.64000000001</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>49237.120000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
+      <c r="Q3" s="3" t="n">
+        <v>137822.64</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>49237.12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>279774</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>252239.4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>334233.12</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="n">
         <v>391832.9</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="3" t="n">
         <v>381448.97</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="3" t="n">
         <v>540289.85</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="3" t="n">
         <v>535282.77</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="n">
         <v>423221.42</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="3" t="n">
         <v>399075.23</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="3" t="n">
         <v>241862.32</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="3" t="n">
         <v>1304763.06</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="3" t="n">
         <v>1568893.44</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="3" t="n">
         <v>1836013.33</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="3" t="n">
         <v>1698041.83</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="3" t="n">
         <v>1642027.72</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>1071559.17</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>734909.56</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>1050928.8</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>1369237.85</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="n">
         <v>1355714.11</v>
       </c>
-      <c r="I5" s="3">
-        <v>1287628.0299999998</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="3" t="n">
+        <v>1287628.03</v>
+      </c>
+      <c r="J5" s="3" t="n">
         <v>1766173.27</v>
       </c>
-      <c r="K5" s="3">
-        <v>2195385.6500000004</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="3" t="n">
+        <v>2195385.65</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>1408928.09</v>
       </c>
-      <c r="M5" s="3">
-        <v>1336754.8599999999</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1269096.8500000001</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="M5" s="3" t="n">
+        <v>1336754.86</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>1269096.85</v>
+      </c>
+      <c r="O5" s="3" t="n">
         <v>3510477.86</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="3" t="n">
         <v>3777425.13</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="3" t="n">
         <v>4280282.87</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="3" t="n">
         <v>4048948.87</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="3" t="n">
         <v>4085794.51</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
@@ -830,48 +808,48 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="I6" s="3" t="n">
         <v>64244.46</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="3" t="n">
         <v>184580.86</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="3" t="n">
         <v>161129.76</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="3" t="n">
         <v>208496.56</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="3" t="n">
         <v>14487648.15</v>
       </c>
-      <c r="N6" s="3">
-        <v>14152160.140000001</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="N6" s="3" t="n">
+        <v>14152160.14</v>
+      </c>
+      <c r="O6" s="3" t="n">
         <v>10095344.67</v>
       </c>
-      <c r="P6" s="3">
-        <v>10880903.960000001</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="P6" s="3" t="n">
+        <v>10880903.96</v>
+      </c>
+      <c r="Q6" s="3" t="n">
         <v>12030822.93</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="3" t="n">
         <v>11673630.4</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="3" t="n">
         <v>14672630.84</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3"/>
@@ -879,48 +857,48 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="I7" s="3" t="n">
         <v>136828.94</v>
       </c>
-      <c r="J7" s="3">
-        <v>19973.919999999998</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J7" s="3" t="n">
+        <v>19973.92</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>16411.78</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="3" t="n">
         <v>30287.19</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="3" t="n">
         <v>245959.84</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="3" t="n">
         <v>170303.61</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="3" t="n">
         <v>47074.9</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="3" t="n">
         <v>186613.88</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="3" t="n">
         <v>458126.91</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="3" t="n">
         <v>133468.22</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="3" t="n">
         <v>155464.34</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3"/>
@@ -928,48 +906,48 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
         <v>193881.12</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="n">
         <v>181154.85</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="n">
         <v>457382.79</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="n">
         <v>787506.33</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="n">
         <v>721890.89</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="n">
         <v>1037484.42</v>
       </c>
-      <c r="P8" s="3">
-        <v>40771035.579999998</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>44498013.990000002</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="P8" s="3" t="n">
+        <v>40771035.58</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>44498013.99</v>
+      </c>
+      <c r="R8" s="3" t="n">
         <v>50961472.43</v>
       </c>
-      <c r="S8" s="3">
-        <v>54155014.740000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="2" t="s">
+      <c r="S8" s="3" t="n">
+        <v>54155014.74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3"/>
@@ -977,48 +955,48 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="n">
         <v>201073.4</v>
       </c>
-      <c r="J9" s="3">
-        <v>398435.89999999997</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="J9" s="3" t="n">
+        <v>398435.9</v>
+      </c>
+      <c r="K9" s="3" t="n">
         <v>358696.39</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="n">
         <v>696166.54</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="n">
         <v>15521114.32</v>
       </c>
-      <c r="N9" s="3">
-        <v>15044354.640000001</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="3" t="n">
+        <v>15044354.64</v>
+      </c>
+      <c r="O9" s="3" t="n">
         <v>11179903.99</v>
       </c>
-      <c r="P9" s="3">
-        <v>51838553.420000002</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>56986963.829999998</v>
-      </c>
-      <c r="R9" s="3">
-        <v>62768571.049999997</v>
-      </c>
-      <c r="S9" s="3">
-        <v>68983109.920000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="2" t="s">
+      <c r="P9" s="3" t="n">
+        <v>51838553.42</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>56986963.83</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>62768571.05</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>68983109.92</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3"/>
@@ -1026,48 +1004,48 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="n">
         <v>1768296.5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="n">
         <v>1835637.25</v>
       </c>
-      <c r="K10" s="3">
-        <v>1626257.4300000002</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3" t="n">
+        <v>1626257.43</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>1258947.69</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="n">
         <v>1259595.49</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="n">
         <v>1195139.26</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="n">
         <v>1242184.94</v>
       </c>
-      <c r="P10" s="3">
-        <v>1383649.6099999999</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1532841.1400000001</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="P10" s="3" t="n">
+        <v>1383649.61</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>1532841.14</v>
+      </c>
+      <c r="R10" s="3" t="n">
         <v>1590563.48</v>
       </c>
-      <c r="S10" s="3">
-        <v>1565986.9100000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2" t="s">
+      <c r="S10" s="3" t="n">
+        <v>1565986.91</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
@@ -1075,48 +1053,48 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>28036.409999999996</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="3" t="n">
+        <v>28036.41</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>42485.53</v>
       </c>
-      <c r="K11" s="3">
-        <v>36108.399999999994</v>
-      </c>
-      <c r="L11" s="3">
-        <v>26039.040000000001</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="K11" s="3" t="n">
+        <v>36108.4</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>26039.04</v>
+      </c>
+      <c r="M11" s="3" t="n">
         <v>25760.95</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="3" t="n">
         <v>16829.03</v>
       </c>
-      <c r="O11" s="3">
-        <v>13074.900000000001</v>
-      </c>
-      <c r="P11" s="3">
-        <v>16014.949999999999</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="O11" s="3" t="n">
+        <v>13074.9</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>16014.95</v>
+      </c>
+      <c r="Q11" s="3" t="n">
         <v>35770.53</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="3" t="n">
         <v>12070.4</v>
       </c>
-      <c r="S11" s="3">
-        <v>10479.130000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2" t="s">
+      <c r="S11" s="3" t="n">
+        <v>10479.13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3"/>
@@ -1124,48 +1102,48 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2" t="s">
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3"/>
@@ -1173,48 +1151,48 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="I13" s="3" t="n">
         <v>1796332.91</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="3" t="n">
         <v>1878122.78</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="3" t="n">
         <v>1662365.83</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="3" t="n">
         <v>1284986.73</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="3" t="n">
         <v>1285356.44</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="3" t="n">
         <v>1211968.29</v>
       </c>
-      <c r="O13" s="3">
-        <v>1255259.8399999999</v>
-      </c>
-      <c r="P13" s="3">
-        <v>1399664.5599999998</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1568611.6700000002</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="O13" s="3" t="n">
+        <v>1255259.84</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>1399664.56</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>1568611.67</v>
+      </c>
+      <c r="R13" s="3" t="n">
         <v>1602633.88</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="3" t="n">
         <v>1576466.04</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3"/>
@@ -1222,48 +1200,48 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>9211467.8699999992</v>
-      </c>
-      <c r="J14" s="3">
-        <v>9800117.2300000004</v>
-      </c>
-      <c r="K14" s="3">
-        <v>9995779.5399999991</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="I14" s="3" t="n">
+        <v>9211467.87</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>9800117.23</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>9995779.54</v>
+      </c>
+      <c r="L14" s="3" t="n">
         <v>9861517.5</v>
       </c>
-      <c r="M14" s="3">
-        <v>10765855.109999999</v>
-      </c>
-      <c r="N14" s="3">
-        <v>10364091.779999999</v>
-      </c>
-      <c r="O14" s="3">
-        <v>10214977.550000001</v>
-      </c>
-      <c r="P14" s="3">
-        <v>9494496.1999999993</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="M14" s="3" t="n">
+        <v>10765855.11</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>10364091.78</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>10214977.55</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>9494496.2</v>
+      </c>
+      <c r="Q14" s="3" t="n">
         <v>10362750.25</v>
       </c>
-      <c r="R14" s="3">
-        <v>9977672.2300000004</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3" t="n">
+        <v>9977672.23</v>
+      </c>
+      <c r="S14" s="3" t="n">
         <v>10167539.91</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="3"/>
@@ -1271,48 +1249,48 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4559.3999999999996</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>4559.4</v>
+      </c>
+      <c r="K15" s="3" t="n">
         <v>7348.4</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="n">
         <v>1290.28</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="2" t="s">
+      <c r="M15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3"/>
@@ -1320,48 +1298,48 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="I16" s="3" t="n">
         <v>188460.64</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="3" t="n">
         <v>373276.29</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="3" t="n">
         <v>1087292.7</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="3" t="n">
         <v>1346564.33</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="3" t="n">
         <v>1310908.78</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="3" t="n">
         <v>1065354.04</v>
       </c>
-      <c r="O16" s="3">
-        <v>867683.83999999997</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="O16" s="3" t="n">
+        <v>867683.84</v>
+      </c>
+      <c r="P16" s="3" t="n">
         <v>876569.71</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="3" t="n">
         <v>1328722.5</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="3" t="n">
         <v>1342069.69</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="3" t="n">
         <v>2591712.94</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3"/>
@@ -1369,48 +1347,48 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>9399928.5099999998</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="3" t="n">
+        <v>9399928.51</v>
+      </c>
+      <c r="J17" s="3" t="n">
         <v>10177952.92</v>
       </c>
-      <c r="K17" s="3">
-        <v>11090420.639999999</v>
-      </c>
-      <c r="L17" s="3">
-        <v>11209372.109999999</v>
-      </c>
-      <c r="M17" s="3">
-        <v>12076763.889999999</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="K17" s="3" t="n">
+        <v>11090420.64</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>11209372.11</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>12076763.89</v>
+      </c>
+      <c r="N17" s="3" t="n">
         <v>11429445.82</v>
       </c>
-      <c r="O17" s="3">
-        <v>11082661.390000001</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="O17" s="3" t="n">
+        <v>11082661.39</v>
+      </c>
+      <c r="P17" s="3" t="n">
         <v>10371065.91</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="n">
         <v>11691472.75</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="n">
         <v>11319741.92</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="n">
         <v>12759252.85</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="3"/>
@@ -1420,42 +1398,42 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3">
-        <v>16252086.710000001</v>
-      </c>
-      <c r="L18" s="3">
-        <v>13300456.199999999</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="K18" s="3" t="n">
+        <v>16252086.71</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>13300456.2</v>
+      </c>
+      <c r="M18" s="3" t="n">
         <v>12279286.49</v>
       </c>
-      <c r="N18" s="3">
-        <v>12878684.130000001</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="N18" s="3" t="n">
+        <v>12878684.13</v>
+      </c>
+      <c r="O18" s="3" t="n">
         <v>11718238.5</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="n">
         <v>13019374.52</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="n">
         <v>14555971.66</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="n">
         <v>13880798.42</v>
       </c>
-      <c r="S18" s="3">
-        <v>13379664.300000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="2" t="s">
+      <c r="S18" s="3" t="n">
+        <v>13379664.3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3"/>
@@ -1465,42 +1443,42 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="K19" s="3" t="n">
         <v>320697.51</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="3" t="n">
         <v>188671.88</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="3" t="n">
         <v>190414.05</v>
       </c>
-      <c r="N19" s="3">
-        <v>159563.17000000001</v>
-      </c>
-      <c r="O19" s="3">
+      <c r="N19" s="3" t="n">
+        <v>159563.17</v>
+      </c>
+      <c r="O19" s="3" t="n">
         <v>170269.35</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="3" t="n">
         <v>119177.68</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="3" t="n">
         <v>254033.2</v>
       </c>
-      <c r="R19" s="3">
-        <v>79696.160000000003</v>
-      </c>
-      <c r="S19" s="3">
+      <c r="R19" s="3" t="n">
+        <v>79696.16</v>
+      </c>
+      <c r="S19" s="3" t="n">
         <v>51530.26</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3"/>
@@ -1510,42 +1488,42 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="n">
         <v>431113.75</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="n">
         <v>618290.15</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="n">
         <v>617296.23</v>
       </c>
-      <c r="N20" s="3">
-        <v>599735.82999999996</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="3" t="n">
+        <v>599735.83</v>
+      </c>
+      <c r="O20" s="3" t="n">
         <v>581035.01</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="n">
         <v>249060.69</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="n">
         <v>2387920.21</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="n">
         <v>1592037.87</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="n">
         <v>1517808.89</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3"/>
@@ -1555,42 +1533,42 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>17003897.969999999</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="3" t="n">
+        <v>17003897.97</v>
+      </c>
+      <c r="L21" s="3" t="n">
         <v>14107418.23</v>
       </c>
-      <c r="M21" s="3">
-        <v>13086996.770000001</v>
-      </c>
-      <c r="N21" s="3">
-        <v>13637983.130000001</v>
-      </c>
-      <c r="O21" s="3">
-        <v>12469542.859999999</v>
-      </c>
-      <c r="P21" s="3">
-        <v>13387612.889999999</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="M21" s="3" t="n">
+        <v>13086996.77</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>13637983.13</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>12469542.86</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>13387612.89</v>
+      </c>
+      <c r="Q21" s="3" t="n">
         <v>17197925.07</v>
       </c>
-      <c r="R21" s="3">
-        <v>15552532.449999999</v>
-      </c>
-      <c r="S21" s="3">
-        <v>14949003.450000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="2" t="s">
+      <c r="R21" s="3" t="n">
+        <v>15552532.45</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>14949003.45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="3"/>
@@ -1602,36 +1580,36 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3">
-        <v>18439550.289999999</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3" t="n">
+        <v>18439550.29</v>
+      </c>
+      <c r="N22" s="3" t="n">
         <v>16329884.99</v>
       </c>
-      <c r="O22" s="3">
-        <v>14442519.279999999</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="O22" s="3" t="n">
+        <v>14442519.28</v>
+      </c>
+      <c r="P22" s="3" t="n">
         <v>13513180.15</v>
       </c>
-      <c r="Q22" s="3">
-        <v>17158033.199999999</v>
-      </c>
-      <c r="R22" s="3">
-        <v>16815665.440000001</v>
-      </c>
-      <c r="S22" s="3">
-        <v>23041455.530000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="2" t="s">
+      <c r="Q22" s="3" t="n">
+        <v>17158033.2</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>16815665.44</v>
+      </c>
+      <c r="S22" s="3" t="n">
+        <v>23041455.53</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="3"/>
@@ -1643,36 +1621,36 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3">
-        <v>83394.100000000006</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="M23" s="3" t="n">
+        <v>83394.1</v>
+      </c>
+      <c r="N23" s="3" t="n">
         <v>112331.43</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="n">
         <v>104341.47</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="n">
         <v>168898.87</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="n">
         <v>156819.93</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="n">
         <v>107265.49</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="n">
         <v>89948.57</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3"/>
@@ -1684,36 +1662,36 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="M24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="n">
         <v>1658503.93</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="n">
         <v>1730829.66</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="n">
         <v>1109777.82</v>
       </c>
-      <c r="Q24" s="3">
-        <v>5433202.3200000003</v>
-      </c>
-      <c r="R24" s="3">
-        <v>4831930.9400000004</v>
-      </c>
-      <c r="S24" s="3">
-        <v>7028124.2699999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="2" t="s">
+      <c r="Q24" s="3" t="n">
+        <v>5433202.32</v>
+      </c>
+      <c r="R24" s="3" t="n">
+        <v>4831930.94</v>
+      </c>
+      <c r="S24" s="3" t="n">
+        <v>7028124.27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3"/>
@@ -1725,36 +1703,36 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3">
-        <v>18522944.390000001</v>
-      </c>
-      <c r="N25" s="3">
-        <v>18100720.350000001</v>
-      </c>
-      <c r="O25" s="3">
+      <c r="M25" s="3" t="n">
+        <v>18522944.39</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>18100720.35</v>
+      </c>
+      <c r="O25" s="3" t="n">
         <v>16277690.41</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="3" t="n">
         <v>14791856.84</v>
       </c>
-      <c r="Q25" s="3">
-        <v>22748055.449999999</v>
-      </c>
-      <c r="R25" s="3">
-        <v>21754861.870000001</v>
-      </c>
-      <c r="S25" s="3">
-        <v>30159528.370000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="2" t="s">
+      <c r="Q25" s="3" t="n">
+        <v>22748055.45</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>21754861.87</v>
+      </c>
+      <c r="S25" s="3" t="n">
+        <v>30159528.37</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="3"/>
@@ -1766,36 +1744,36 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="n">
         <v>1342763.77</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="n">
         <v>1336549.82</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="n">
         <v>1259208.42</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="n">
         <v>1063953.45</v>
       </c>
-      <c r="Q26" s="3">
-        <v>1158608.8600000001</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="Q26" s="3" t="n">
+        <v>1158608.86</v>
+      </c>
+      <c r="R26" s="3" t="n">
         <v>1357065.06</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="n">
         <v>1358301.28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="3"/>
@@ -1807,36 +1785,36 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3">
-        <v>556633.68000000005</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="M27" s="3" t="n">
+        <v>556633.68</v>
+      </c>
+      <c r="N27" s="3" t="n">
         <v>438518.05</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="n">
         <v>415127.7</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="n">
         <v>345635.32</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="n">
         <v>799535.14</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="n">
         <v>277855.27</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="n">
         <v>249225.92</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="3"/>
@@ -1848,36 +1826,36 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>29231.919999999998</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="M28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>29231.92</v>
+      </c>
+      <c r="O28" s="3" t="n">
         <v>24970.32</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="3" t="n">
         <v>1490065.34</v>
       </c>
-      <c r="Q28" s="3">
-        <v>2200378.1800000002</v>
-      </c>
-      <c r="R28" s="3">
+      <c r="Q28" s="3" t="n">
+        <v>2200378.18</v>
+      </c>
+      <c r="R28" s="3" t="n">
         <v>1349597.78</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="3" t="n">
         <v>1338490.27</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3"/>
@@ -1889,36 +1867,36 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3">
-        <v>1899397.4500000002</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="3" t="n">
+        <v>1899397.45</v>
+      </c>
+      <c r="N29" s="3" t="n">
         <v>1804299.79</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="n">
         <v>1699306.44</v>
       </c>
-      <c r="P29" s="3">
-        <v>2899654.1100000003</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="P29" s="3" t="n">
+        <v>2899654.11</v>
+      </c>
+      <c r="Q29" s="3" t="n">
         <v>4158522.18</v>
       </c>
-      <c r="R29" s="3">
-        <v>2984518.1100000003</v>
-      </c>
-      <c r="S29" s="3">
-        <v>2946017.4699999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="2" t="s">
+      <c r="R29" s="3" t="n">
+        <v>2984518.11</v>
+      </c>
+      <c r="S29" s="3" t="n">
+        <v>2946017.47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="3"/>
@@ -1930,36 +1908,36 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3">
+      <c r="M30" s="3" t="n">
         <v>22973.58</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="3" t="n">
         <v>16917.22</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="3" t="n">
         <v>19371.79</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="3" t="n">
         <v>17908.37</v>
       </c>
-      <c r="Q30" s="3">
-        <v>20083.330000000002</v>
-      </c>
-      <c r="R30" s="3">
+      <c r="Q30" s="3" t="n">
+        <v>20083.33</v>
+      </c>
+      <c r="R30" s="3" t="n">
         <v>14454.74</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="3" t="n">
         <v>11285.91</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="3"/>
@@ -1971,36 +1949,36 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3">
-        <v>163049.60999999999</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="M31" s="3" t="n">
+        <v>163049.61</v>
+      </c>
+      <c r="N31" s="3" t="n">
         <v>435727.72</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="3" t="n">
         <v>522914.71</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="3" t="n">
         <v>417524.57</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="3" t="n">
         <v>912264.16</v>
       </c>
-      <c r="R31" s="3">
-        <v>315547.96999999997</v>
-      </c>
-      <c r="S31" s="3">
+      <c r="R31" s="3" t="n">
+        <v>315547.97</v>
+      </c>
+      <c r="S31" s="3" t="n">
         <v>127785.84</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="3"/>
@@ -2012,36 +1990,36 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3">
-        <v>12352904.609999999</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="M32" s="3" t="n">
+        <v>12352904.61</v>
+      </c>
+      <c r="N32" s="3" t="n">
         <v>10266305</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="n">
         <v>13058342.18</v>
       </c>
-      <c r="P32" s="3">
-        <v>10433193.130000001</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>22796356.609999999</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="P32" s="3" t="n">
+        <v>10433193.13</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>22796356.61</v>
+      </c>
+      <c r="R32" s="3" t="n">
         <v>662.25</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="n">
         <v>2519.09</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3"/>
@@ -2053,34 +2031,37 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3">
-        <v>12538927.799999999</v>
-      </c>
-      <c r="N33" s="3">
-        <v>10718949.939999999</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="M33" s="3" t="n">
+        <v>12538927.8</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>10718949.94</v>
+      </c>
+      <c r="O33" s="3" t="n">
         <v>13600628.68</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="n">
         <v>10868626.07</v>
       </c>
-      <c r="Q33" s="3">
-        <v>23728704.099999998</v>
-      </c>
-      <c r="R33" s="3">
-        <v>330664.95999999996</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="Q33" s="3" t="n">
+        <v>23728704.1</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>330664.96</v>
+      </c>
+      <c r="S33" s="3" t="n">
         <v>141590.84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S33" xr:uid="{D8B79B7C-423F-47F7-8246-8674A9603C70}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S33">
-    <sortCondition ref="B2:B33"/>
-    <sortCondition ref="C2:C33"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <autoFilter ref="A1:S33"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Registro Público de Emissões.xlsx
+++ b/data/Registro Público de Emissões.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$S$33</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -178,24 +175,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -294,10 +295,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,12 +474,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="T19" activeCellId="0" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,6 +553,9 @@
       <c r="S1" s="2" t="n">
         <v>2023</v>
       </c>
+      <c r="T1" s="2" t="n">
+        <v>2024</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -615,6 +615,9 @@
       <c r="S2" s="3" t="n">
         <v>2394529.67</v>
       </c>
+      <c r="T2" s="3" t="n">
+        <v>2283987.65</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -674,6 +677,9 @@
       <c r="S3" s="3" t="n">
         <v>49237.12</v>
       </c>
+      <c r="T3" s="3" t="n">
+        <v>87000.06</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -733,6 +739,9 @@
       <c r="S4" s="3" t="n">
         <v>1642027.72</v>
       </c>
+      <c r="T4" s="3" t="n">
+        <v>16441960.23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -791,6 +800,9 @@
       </c>
       <c r="S5" s="3" t="n">
         <v>4085794.51</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>18812947.94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,6 +853,9 @@
       <c r="S6" s="3" t="n">
         <v>14672630.84</v>
       </c>
+      <c r="T6" s="3" t="n">
+        <v>15305004.39</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -890,6 +905,9 @@
       <c r="S7" s="3" t="n">
         <v>155464.34</v>
       </c>
+      <c r="T7" s="3" t="n">
+        <v>229527.06</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -938,6 +956,9 @@
       </c>
       <c r="S8" s="3" t="n">
         <v>54155014.74</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>55148792.63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,8 +1009,11 @@
       <c r="S9" s="3" t="n">
         <v>68983109.92</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T9" s="3" t="n">
+        <v>70683324.08</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,6 +1061,10 @@
       <c r="S10" s="3" t="n">
         <v>1565986.91</v>
       </c>
+      <c r="T10" s="3" t="n">
+        <v>1579306.03</v>
+      </c>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1086,6 +1114,9 @@
       <c r="S11" s="3" t="n">
         <v>10479.13</v>
       </c>
+      <c r="T11" s="3" t="n">
+        <v>15206.17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1133,6 +1164,9 @@
         <v>0</v>
       </c>
       <c r="S12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1184,6 +1218,9 @@
       <c r="S13" s="3" t="n">
         <v>1576466.04</v>
       </c>
+      <c r="T13" s="3" t="n">
+        <v>1594512.2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -1233,6 +1270,9 @@
       <c r="S14" s="3" t="n">
         <v>10167539.91</v>
       </c>
+      <c r="T14" s="3" t="n">
+        <v>8940516.04</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1280,6 +1320,9 @@
         <v>0</v>
       </c>
       <c r="S15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1331,6 +1374,9 @@
       <c r="S16" s="3" t="n">
         <v>2591712.94</v>
       </c>
+      <c r="T16" s="3" t="n">
+        <v>3414468.9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -1379,6 +1425,9 @@
       </c>
       <c r="S17" s="3" t="n">
         <v>12759252.85</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>12354984.94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,6 +1474,9 @@
       <c r="S18" s="3" t="n">
         <v>13379664.3</v>
       </c>
+      <c r="T18" s="3" t="n">
+        <v>13513428.22</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1470,6 +1522,9 @@
       <c r="S19" s="3" t="n">
         <v>51530.26</v>
       </c>
+      <c r="T19" s="3" t="n">
+        <v>79606.76</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -1515,6 +1570,9 @@
       <c r="S20" s="3" t="n">
         <v>1517808.89</v>
       </c>
+      <c r="T20" s="3" t="n">
+        <v>2613348.66</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -1559,6 +1617,9 @@
       </c>
       <c r="S21" s="3" t="n">
         <v>14949003.45</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>16206383.64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,6 +1662,9 @@
       <c r="S22" s="3" t="n">
         <v>23041455.53</v>
       </c>
+      <c r="T22" s="3" t="n">
+        <v>23632865.33</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1642,6 +1706,9 @@
       <c r="S23" s="3" t="n">
         <v>89948.57</v>
       </c>
+      <c r="T23" s="3" t="n">
+        <v>137470.84</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -1682,6 +1749,9 @@
       </c>
       <c r="S24" s="3" t="n">
         <v>7028124.27</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>6271998.14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,6 +1794,9 @@
       <c r="S25" s="3" t="n">
         <v>30159528.37</v>
       </c>
+      <c r="T25" s="3" t="n">
+        <v>30042334.31</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -1765,12 +1838,15 @@
       <c r="S26" s="3" t="n">
         <v>1358301.28</v>
       </c>
+      <c r="T26" s="3" t="n">
+        <v>1341908</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1806,12 +1882,15 @@
       <c r="S27" s="3" t="n">
         <v>249225.92</v>
       </c>
+      <c r="T27" s="3" t="n">
+        <v>369011.67</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1847,12 +1926,15 @@
       <c r="S28" s="3" t="n">
         <v>1338490.27</v>
       </c>
+      <c r="T28" s="3" t="n">
+        <v>974589.15</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1888,6 +1970,9 @@
       <c r="S29" s="3" t="n">
         <v>2946017.47</v>
       </c>
+      <c r="T29" s="3" t="n">
+        <v>2685508.82</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -1929,6 +2014,9 @@
       <c r="S30" s="3" t="n">
         <v>11285.91</v>
       </c>
+      <c r="T30" s="3" t="n">
+        <v>11940.56</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -1970,6 +2058,9 @@
       <c r="S31" s="3" t="n">
         <v>127785.84</v>
       </c>
+      <c r="T31" s="3" t="n">
+        <v>185924.52</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -2011,6 +2102,9 @@
       <c r="S32" s="3" t="n">
         <v>2519.09</v>
       </c>
+      <c r="T32" s="3" t="n">
+        <v>2774.19</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -2052,9 +2146,11 @@
       <c r="S33" s="3" t="n">
         <v>141590.84</v>
       </c>
+      <c r="T33" s="3" t="n">
+        <v>200639.27</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S33"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2062,6 +2158,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>